--- a/Table NMA vs UME.xlsx
+++ b/Table NMA vs UME.xlsx
@@ -397,22 +397,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  B vs A   </t>
+          <t xml:space="preserve">                  budesodine plus formoterol vs budesodine                  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.83   </t>
+          <t xml:space="preserve">   -0.23   </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.64   </t>
+          <t xml:space="preserve">    0.50   </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-0.47,  2.21) </t>
+          <t xml:space="preserve">(-1.20,  0.74) </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -434,22 +434,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  C vs A   </t>
+          <t xml:space="preserve">                         fluticasone vs budesodine                          </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.07   </t>
+          <t xml:space="preserve">   -0.68   </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.76   </t>
+          <t xml:space="preserve">    0.51   </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.24,  1.58) </t>
+          <t xml:space="preserve">(-1.69,  0.30) </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -471,22 +471,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  D vs A   </t>
+          <t xml:space="preserve">        fluticasone plus
+                  salmeterol vs budesodine        </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.73   </t>
+          <t xml:space="preserve">   -0.52   </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.50   </t>
+          <t xml:space="preserve">    0.51   </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-0.33,  1.64) </t>
+          <t xml:space="preserve">(-1.51,  0.49) </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -508,22 +509,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  E vs A   </t>
+          <t xml:space="preserve">                          formoterol vs budesodine                          </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.47   </t>
+          <t xml:space="preserve">   -0.88   </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.70   </t>
+          <t xml:space="preserve">    0.47   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>( 0.11,  2.89)*</t>
+          <t xml:space="preserve">(-1.78,  0.06) </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -545,22 +546,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  D vs B   </t>
+          <t>fluticasone plus
+                  salmeterol vs budesodine plus formoterol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.10   </t>
+          <t xml:space="preserve">   -0.29   </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.70   </t>
+          <t xml:space="preserve">    0.47   </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.59,  1.20) </t>
+          <t xml:space="preserve">(-1.20,  0.65) </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -582,22 +584,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  F vs B   </t>
+          <t xml:space="preserve">                  salmeterol vs budesodine plus formoterol                  </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -1.33   </t>
+          <t xml:space="preserve">   -0.29   </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.14   </t>
+          <t xml:space="preserve">    0.42   </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-3.64,  0.81) </t>
+          <t xml:space="preserve">(-1.10,  0.57) </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -619,22 +621,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  D vs C   </t>
+          <t xml:space="preserve">       fluticasone plus
+                  salmeterol vs fluticasone        </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.66   </t>
+          <t xml:space="preserve">    0.17   </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.86   </t>
+          <t xml:space="preserve">    0.35   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.10,  2.12) </t>
+          <t xml:space="preserve">(-0.48,  0.85) </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -656,22 +659,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  E vs D   </t>
+          <t xml:space="preserve">        formoterol vs fluticasone plus
+                  salmeterol        </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.74   </t>
+          <t xml:space="preserve">   -0.37   </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.73   </t>
+          <t xml:space="preserve">    0.35   </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-0.51,  2.20) </t>
+          <t xml:space="preserve">(-1.03,  0.31) </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/Table NMA vs UME.xlsx
+++ b/Table NMA vs UME.xlsx
@@ -397,27 +397,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">                  budesodine plus formoterol vs budesodine                  </t>
+          <t xml:space="preserve">  B vs A   </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.23   </t>
+          <t xml:space="preserve">    0.81   </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.50   </t>
+          <t xml:space="preserve">    0.60   </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.20,  0.74) </t>
+          <t xml:space="preserve">(-0.30,  2.02) </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.60   </t>
+          <t xml:space="preserve">    0.65   </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -427,270 +427,266 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.12,  0.13) </t>
+          <t xml:space="preserve">(-1.09,  0.20) </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                         fluticasone vs budesodine                          </t>
+          <t xml:space="preserve">  C vs A   </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.68   </t>
+          <t xml:space="preserve">   -0.04   </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.51   </t>
+          <t xml:space="preserve">    0.65   </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.69,  0.30) </t>
+          <t xml:space="preserve">(-1.23,  1.34) </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.30   </t>
+          <t xml:space="preserve">    0.17   </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.69   </t>
+          <t xml:space="preserve">    0.71   </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(-1.09, -0.09)*</t>
+          <t>(-1.16, -0.29)*</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        fluticasone plus
-                  salmeterol vs budesodine        </t>
+          <t xml:space="preserve">  D vs A   </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.52   </t>
+          <t xml:space="preserve">    0.80   </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.51   </t>
+          <t xml:space="preserve">    0.47   </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.51,  0.49) </t>
+          <t xml:space="preserve">(-0.11,  1.71) </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.86   </t>
+          <t xml:space="preserve">    0.68   </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.59   </t>
+          <t xml:space="preserve">    0.56   </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-0.46,  0.53) </t>
+          <t xml:space="preserve">(-0.40,  0.30) </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          formoterol vs budesodine                          </t>
+          <t xml:space="preserve">  E vs A   </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.88   </t>
+          <t xml:space="preserve">    1.50   </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.47   </t>
+          <t xml:space="preserve">    0.68   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.78,  0.06) </t>
+          <t>( 0.16,  2.77)*</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.98   </t>
+          <t xml:space="preserve">    1.88   </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.78   </t>
+          <t xml:space="preserve">    0.83   </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>( 0.37,  1.55)*</t>
+          <t>( 0.34,  1.32)*</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fluticasone plus
-                  salmeterol vs budesodine plus formoterol</t>
+          <t xml:space="preserve">  D vs B   </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.29   </t>
+          <t xml:space="preserve">   -0.01   </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.47   </t>
+          <t xml:space="preserve">    0.61   </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.20,  0.65) </t>
+          <t xml:space="preserve">(-1.28,  1.17) </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.42   </t>
+          <t xml:space="preserve">   -0.52   </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.97   </t>
+          <t xml:space="preserve">    1.08   </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(-2.53, -0.95)*</t>
+          <t>(-2.72, -1.21)*</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                  salmeterol vs budesodine plus formoterol                  </t>
+          <t xml:space="preserve">  F vs B   </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.29   </t>
+          <t xml:space="preserve">   -1.39   </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.42   </t>
+          <t xml:space="preserve">    1.06   </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.10,  0.57) </t>
+          <t xml:space="preserve">(-3.34,  0.62) </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -1.33   </t>
+          <t xml:space="preserve">   -1.44   </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.09   </t>
+          <t xml:space="preserve">    1.25   </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(-3.60, -1.97)*</t>
+          <t>(-3.88, -2.23)*</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">       fluticasone plus
-                  salmeterol vs fluticasone        </t>
+          <t xml:space="preserve">  D vs C   </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.17   </t>
+          <t xml:space="preserve">    0.83   </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.35   </t>
+          <t xml:space="preserve">    0.69   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-0.48,  0.85) </t>
+          <t xml:space="preserve">(-0.64,  2.08) </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.20   </t>
+          <t xml:space="preserve">    1.09   </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.86   </t>
+          <t xml:space="preserve">    0.96   </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-0.59,  0.74) </t>
+          <t xml:space="preserve">(-1.01,  0.51) </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        formoterol vs fluticasone plus
-                  salmeterol        </t>
+          <t xml:space="preserve">  E vs D   </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.37   </t>
+          <t xml:space="preserve">    0.70   </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.35   </t>
+          <t xml:space="preserve">    0.63   </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">(-1.03,  0.31) </t>
+          <t xml:space="preserve">(-0.62,  1.97) </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -0.92   </t>
+          <t xml:space="preserve">   -0.54   </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1.41   </t>
+          <t xml:space="preserve">    1.30   </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(-3.80, -1.77)*</t>
+          <t>(-2.95, -1.43)*</t>
         </is>
       </c>
     </row>
